--- a/public/sampleAreas.xlsx
+++ b/public/sampleAreas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sr.</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Misri Shah</t>
-  </si>
-  <si>
-    <t>Note:All fields are required for every item.</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,17 +457,12 @@
       <c r="D6" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
